--- a/src/test/java/Others/DeadLinks.xlsx
+++ b/src/test/java/Others/DeadLinks.xlsx
@@ -16,112 +16,1512 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Barnyard_Frolic</t>
-  </si>
-  <si>
-    <t>A Barnyard Frolic</t>
-  </si>
-  <si>
-    <t>https://www.bcdb.com/cartoon/166342-Barnyard-Frolic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Bathing_Ape</t>
-  </si>
-  <si>
-    <t>A Bathing Ape</t>
-  </si>
-  <si>
-    <t>http://www.highsnobiety.com/2013/05/25/nigo-announces-his-definitive-departure-from-bape/</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Boy_and_His_Blob:_Trouble_on_Blobolonia</t>
-  </si>
-  <si>
-    <t>A Boy and His Blob: Trouble on Blobolonia</t>
-  </si>
-  <si>
-    <t>https://news.google.com/newspapers?id=4GgaAAAAIBAJ&amp;amp;sjid=7SsEAAAAIBAJ&amp;amp;pg=6939,2963419&amp;amp;dq=boy-and-his+nintendo&amp;amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://news.google.com/newspapers?id=7MYdAAAAIBAJ&amp;amp;sjid=CywEAAAAIBAJ&amp;amp;pg=6948,4356065&amp;amp;dq=boy-and-his-blob+nintendo&amp;amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Broad_Bellflower</t>
-  </si>
-  <si>
-    <t>A Broad Bellflower</t>
-  </si>
-  <si>
-    <t>https://encykorea.aks.ac.kr/Contents/CategoryNavi?category=field&amp;amp;keyword=%EC%98%88%EC%88%A0%C2%B7%EC%B2%B4%EC%9C%A1/%EC%98%81%ED%99%94&amp;amp;ridx=49&amp;amp;tot=281</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Bucket_of_Blood</t>
-  </si>
-  <si>
-    <t>A Bucket of Blood</t>
-  </si>
-  <si>
-    <t>http://www.loyolaphoenix.com/sections/diversions/bucket-of-blood-giddy-gruesome-and-musical-1.526442</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Case_of_Spring_Fever</t>
-  </si>
-  <si>
-    <t>A Case of Spring Fever</t>
-  </si>
-  <si>
-    <t>https://www.bcdb.com/cartoon/47818-Case-Of-Spring-Fever</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/%C3%80_cause_de_l%27automne</t>
-  </si>
-  <si>
-    <t>À cause de l'automne</t>
-  </si>
-  <si>
-    <t>https://www.dailymotion.com/video/xrqxol_alizee-a-un-message-pour-vous_music?search_algo=1</t>
-  </si>
-  <si>
-    <t>https://www.dailymotion.com/video/xrt218_alizee-a-un-message-pour-vous-rec_music?search_algo=1</t>
-  </si>
-  <si>
-    <t>https://www.dailymotion.com/video/xrtjpe_alizee-nouveau-single-a-decouvrir-en-exclu_music?search_algo=1</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Change_Is_Gonna_Come_(Grey%27s_Anatomy)</t>
-  </si>
-  <si>
-    <t>A Change Is Gonna Come (Grey's Anatomy)</t>
-  </si>
-  <si>
-    <t>http://jezebel.com/isaiah-washington/</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Change_of_Pace</t>
-  </si>
-  <si>
-    <t>A Change of Pace</t>
-  </si>
-  <si>
-    <t>https://twitter.com/ThisIsACOP/status/1091570279372017665</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/A_Change_of_Skin</t>
-  </si>
-  <si>
-    <t>A Change of Skin</t>
-  </si>
-  <si>
-    <t>http://lccn.loc.gov/68074156</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alkoxy_group");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alkun");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Adam_(TV_series)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Anna");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Eve");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Eve_(band)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Love_(2010_film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_My_Wife");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Records");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_That_Bass");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_Tonight_(Pixie_Lott_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_About_You_(Taeyeon_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-African_Convention");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Along_Stakes");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_American_Boy_(Steve_Grand_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_American_Foods");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_American_Hockey_League_(2008%E2%80%932011)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_American_Nightmare");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Angels");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Aussie_Adventures");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Bound_for_Morningtown");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_by_Myself");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Ceylon_Makkal_Congress");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Circuit_Review_Extension_Act");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_City_(Downsyde_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_City_(Northern_State_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Days_Are_Nights:_Songs_for_Lulu");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_England_Jumping_Course_at_Hickstead");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_England_Lawn_Tennis_and_Croquet_Club");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Eyez_on_Me_(Monica_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Falls_Down");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Fired_Up!_(tour)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_for_Love_(song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_for_Peace");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_for_Peru");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_for_You_(Janet_Jackson_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_fourths_tuning");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hail_King_Julien");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hail_the_Silence");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hallows_College");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hallows_Lombard_Street");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hallows_Preparatory_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hallows%27_Eve_(2016_film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hands_and_Hearts");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hearts_Tour");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Hooked_Up");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_I_Ever_Needed");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_I_Ever_Wanted_(Aranda_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_I_Intended_to_Be");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_I_Know");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_I_Want_Is_You_(U2_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_I_Wish");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_in_Blood_with_You");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_in_My_Head_(Kosheen_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_in_the_Best_Possible_Taste_with_Grayson_Perry");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_in_the_Mind_(novel)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_in_with_Cam_Newton");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_%26_South_Asia_Rugby_Tournament");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Catholic_Union");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Democratic_Youth_Organisation");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Football_Federation");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Institute_of_Medical_Sciences,_New_Delhi");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Institute_of_Medical_Sciences,_Patna");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Institute_of_Medical_Sciences,_Raebareli");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Institutes_of_Medical_Sciences");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Konkani_Parishad");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Rajakulathor_Peravai");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Senior_School_Certificate_Examination");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_India_Vaish_Federation");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Ireland_Colleges_Camogie_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Is_Found");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Is_Full_of_Love");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Is_Well_(TV_series)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Japan_Garrison_Forces_Labor_Union");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Loved_Up");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Mirrors");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Money_Is_Legal");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_My_Babies%27_Mamas");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_My_Friends_Are_Funeral_Singers_(film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_My_Life_(2020_film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_My_Puny_Sorrows_(film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Nepal_Democratic_Youth_Association_(RJM_group)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Night_Long_(Alexandra_Burke_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Night_Long_(All_Night)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Night_Long:_Live_in_Dallas");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Nighter_(bus_service)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Nippon_Airways");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_of_the_People");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_of_You_(Colbie_Caillat_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_or_Nothing_(Jay_Sean_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_or_Nothing_(lottery)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_or_Nothing_(The_Subways_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Over_the_Workplace");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Over_You_Too");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Pakistan_Muttahidda_Students_Organization");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Parks_Alliance_for_Change");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Parties_Hurriyat_Conference");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Passion_Spent");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_People%27s_Party_(Namibia)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Platinum_Records");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Points_West_(radio_program)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Points_West_Music_%26_Arts_Festival");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Pro_Dad");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Progressives_Congress");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_round_defence");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_(All_Saints_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Anglican_Church,_Henley_Brook");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Catholic_College,_North_Kensington");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Catholic_High_School_(Ontario)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Catholic_High_School,_Sheffield");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Catholic_School,_Dagenham");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Central_High_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church_(Secunderabad)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church,_Boltongate");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church,_Bow_Brickhill");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church,_Evesham");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church,_Siddington");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church,_Waldershare");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Church,_Weston-on-Avon");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Episcopal_Church_(Fort_Lauderdale,_Florida)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_GAC");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Greek_Orthodox_Grammar_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_Hove");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints_season_11");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints,_Margaret_Street");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Anglican_Cathedral_(Edmonton)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Catholic_Academy");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Church_(Sunderland,_Maryland)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Church,_Denstone");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Church,_Lawshall");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Church,_Naseby");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Church,_West_Haddon");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Day_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Saints%27_Massacre");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Shall_Fall");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Souls_Church,_Langham_Place");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Star_DC_Comics");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Stars_(song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_That");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_That_(song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_That_Glitters_(American_TV_series)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_That_Remains_(band)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_That_season_7");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_That_the_Rain_Promises");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Colours_of_the_World_Are_Between_Black_and_White");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Hits_Tour_(Lionel_Richie_and_Mariah_Carey)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Hits,_All_Night_Long");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Man_That_I_Need");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Plans");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Plans_(song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Rage_(novel)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Right_Reasons");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Right_Wrongs");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Things_(Your_Man_Won%27t_Do)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Time_in_the_World_(Jump5_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Vermeers_in_New_York");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Way_(2016_film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Way_(Eddie_Vedder_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Women_I_Am");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_World%27s_a_Stage_(album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_the_Wrong_Questions");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Things_Real");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_This_Time_(Heartless_Bastards_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Through_the_Night_(Jules_Shear_song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Time_Low");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Tomorrow%27s_Parties");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Wales_Convention");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Woman");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Work_%26_No_Play");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Wrestling_Organization");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_You_Need_Is_Pag-ibig");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Your_Fault:_Pt._1");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All_Your_Love_(album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-American_Professional_Basketball_League");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-American_Strongman_Challenge");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-China_Gaelic_Games");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-comers_track_meet");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-High_Stadium");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-India_Yadav_Mahasabha");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Junior_Camogie_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_League_(rugby_union)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Minor_B_Hurling_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Minor_Camogie_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Senior_Camogie_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Senior_Club_Camogie_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Senior_Club_Camogie_Championship_2002");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Senior_Club_Camogie_Championship_2007");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Senior_Club_Camogie_Championship_2011");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ireland_Under-20_Football_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Ivy_League_women%27s_ice_hockey_players_(2000%E2%80%932009)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Japan_High_School_Ekiden_Championship");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Malaya_Council_of_Joint_Action");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-New,_All-Different_Marvel");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Night_Fox");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Palestine_Protectorate");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Russian_Democratic_Conference");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Star_Squares");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Star_Superman");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-Stars_(band)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Atlanta_Silverbacks_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Charlotte_Eagles_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Cleveland_Internationals_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Kalamazoo_Outrage_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Long_Island_Rough_Riders_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Minnesota_Thunder_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Minnesota_United_FC_(2010%E2%80%932016)_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_North_Carolina_Fusion_U23_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Northern_Virginia_Royals_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Olympic_Games_medal_table");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Reading_United_A.C._roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Rochester_Rhinos_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_tennis_records_%E2%80%93_Men%27s_singles");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All-time_Toronto_Lynx_roster");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All%27s_Well_That_Ends_Well_(Chiodos_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All%C3%A1");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alla_(song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alla_Dzhioyeva");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/All%C3%A1_en_el_Sur");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alla_Fedynitch");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alla_Grebennikova");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alla_Gryaznova");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alla_Jakovleva");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alladi_Ramakrishnan");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allagash_River");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allahpundit");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allahyar_Sayyadmanesh");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allaire_Corporation");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allakh-Yun_(river)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allamakee_County,_Iowa");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allamraju_Subrahmanyakavi");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_(footballer,_born_1984)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_(footballer,_born_1991)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_(song)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Adair");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Arenfeldt_Olesen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_B._Polunsky_Unit");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Blank");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Boase");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Border");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Border_Field");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Butler");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_C._Hill");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/2016_Allan_Cup");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_de_Noronha");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Detrich");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Dugbley");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Eastwood");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Elliot");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Fallah");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Gibbard");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Glaser");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_G%C3%B3es");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Gorman");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Grimson");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Hawke");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Hendrickse");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Hubley");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Hunter_(footballer)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_J._McDonald");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_J._Wilson");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Johnston");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Johnston_(advertiser)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_K._Jepsen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Kirk");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_L._McCutcheon");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Leighton");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Luiz_Ignacio_de_Lima");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Luke");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Mansoor");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Mathieson");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_McEachern");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_McGregor");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_McKay_(visual_effects)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_M%C3%B8rk%C3%B8re");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Mustard");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Myers");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Neuwirth");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Nevins");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_R._Millett");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_R._Odden");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Rock");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Rodriguez_(soccer)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Ryan_(attorney)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Sly");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Sparkes");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Sparrow");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Tarsis_Munaaba");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Wachowich");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Yeomans");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allan_Zullo");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/George_William_Allan");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Peter_John_Allan");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/William_Evan_Allan");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allanblackia_oil");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allancastria");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allantoin");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allapattah_station");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allard_Baird");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Fernand_Allard_l%27Olivier");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allard_Prize_for_International_Integrity");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Donna_Allard");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allari_(film)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allatini_Mills");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allbrook");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/AllCanada_Express");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/AllClear_ID");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allco_Finance_Group");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alleanza_Assicurazioni");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/ALLED_Lighting_Systems");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegaeon");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegations_of_war_crimes_in_the_2006_Lebanon_War");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alleged_British_use_of_chemical_weapons_in_Mesopotamia_in_1920");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_Airlines");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_Arsenal");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_Cemetery");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_College");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_County_Airport_Authority");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_County_Alcoholic_Beverage_Tax");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_County_Courthouse");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_County_Jail");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_County_Sanitary_Authority");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_Health_Network");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_Islands_State_Park");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_Mountain_(Pennsylvania)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegheny_woodrat");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegiance_(musical)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegiance_Council");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegorical_interpretations_of_Plato");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegory_of_Fortune");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegory_of_the_long_spoons");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegra_%22Happy%22_Haynes");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegra_Byron");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allegro_(musical)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_%26_Collens");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Aaron_Cook");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Aldridge");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Allensworth");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Americans");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_B._Morgan_Jr.");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Bradford_(American_football)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Carr");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Cemetery");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Center");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Chao");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Craig");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Crane");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Cunningham");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_curve");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Dale_June");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Dorfman");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Evans");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Fox");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Harvey_Woodward");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Hazen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Hoey");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Hunt");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Institute_for_Brain_Science");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Iverson");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Jakovich");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Johnson_(activist)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Kay");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Litzau");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_M._Thomas");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_McClay");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_McKenzie");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Meadows");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Parish,_Louisiana");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Paul_(writer)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Quist");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Rossum");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Sangree");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Saunders");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Stanford");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Strange");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_T._Wikoff");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Tankard");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Tate_Realtors");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Telescope_Array");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_v._City_of_Oakland");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Wastler");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Weh");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Wolf");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen_Zadoff");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen-Beville_House");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Amos_Allen_(gridiron_football)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Choc%27late_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Cory_Allen_(author)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Denis_Allen_(singer)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Dick_Allen_(poet)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Dwight_W._Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Fred_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Fred_Allen_(rugby_union)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Gary_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Harley_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Hill_of_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Jake_Allen_(American_football)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/John_Allen_(basketball)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/John_L._Allen_Jr.");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/John_R._Allen_Jr.");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Marit_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen,_New_York");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allen,_Texas");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Thomas_Carleton_Allen");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allendale_Charter_Township,_Michigan");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allendale,_Michigan");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allendale,_New_Jersey");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allende_Municipality,_Coahuila");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allentown_Central_Catholic_High_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allentown_High_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allentown_Parking_Authority");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allentown_Red_Sox");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allentown,_New_Jersey");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Aller_(Germany)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Aller_Brook");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Aller_Canal");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allergic_reactions_to_anesthesia");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allergic_rhinitis");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allerona");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allersberg_(Rothsee)_station");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allersberg-Express");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allerton_High_School");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allestree");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allestree_Hall");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alley");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alleyton,_Texas");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allgemeine_Deutsche_Zeitung_f%C3%BCr_Rum%C3%A4nien");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Waheed_Alli,_Baron_Alli");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliana_Volkart");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_(esports)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_(New_Zealand_political_party)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_(taxonomy)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_90/The_Greens");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_90/The_Greens_Hamburg");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Air_(Uganda)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Atlantis");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_a_Green_Revolution_in_Africa");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_a_New_Ivory_Coast");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Aging_Research");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Biosecurity");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Change_and_Transparency");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Childhood");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Democracy_and_Development_(Cameroon)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Democracy_and_Federation_%E2%80%93_African_Democratic_Rally");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Freedom_and_Democracy");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Inclusive_Education");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Justice_and_Democracy/Movement_for_Renewal");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Open_Media");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_Shared_Values");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_the_Future_of_Austria");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_the_Prudent_Use_of_Antibiotics");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_for_the_Restoration_of_Peace_and_Counter-Terrorism");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_High_School_(Oregon)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Homes_Group");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_of_Builders_of_Islamic_Iran");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_of_Change");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_of_Concerned_Jewish_Canadians");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_of_Liberals_and_Democrats_for_Europe_Party");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_of_Palestinian_Forces");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Party_of_Northern_Ireland");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Quebec");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Sports_Casablanca_(basketball)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_Trust");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance_University");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alliance,_Alberta");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/AllianceHealth_Durant");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allianz_Riviera");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allianz_vun_Humanisten,_Atheisten_an_Agnostiker");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allie_Beth_Stuckey");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allie_DeBerry");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allie_Reynolds");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allie_Thunstrom");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Air");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Bank_Zimbabwe_Limited");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Communication_Procedures");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Communications_Publications");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Democratic_Forces_insurgency");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Dunbar");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_intervention_in_the_Russian_Civil_War");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Irish_Banks");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Joint_Force_Command_Brunssum");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_leaders_of_World_War_II");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Military_Government_of_Occupied_Territories");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Motion_Technologies");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_occupation_of_Iceland");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Quality_Assurance_Publications");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Radio_plc");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Security_Trust");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Shipbuilders");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_sovereigns%27_visit_to_England");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allied_Waste_Industries");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allies_(Fred_Frith_album)");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alligator_Festival");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alligator_Reef_Light");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Alligatoridae");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/The_Alligators");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allihies");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allinge-Sandvig");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Margery_Allingham");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allington,_Kent");</t>
+  </si>
+  <si>
+    <t>startUrl.add("https://en.wikipedia.org/wiki/Allington,_Salisbury");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -447,15 +1847,2512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1"/>
+  <dimension ref="A1:A500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="D1" t="s" s="0">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
